--- a/DocumentUnderstanding/Extracted Data/CombinedDocument2.xlsx
+++ b/DocumentUnderstanding/Extracted Data/CombinedDocument2.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <x:si>
-    <x:t>Customer Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Customer Address</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <x:si>
+    <x:t>Employer Fed ID Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wages ,tips and Other Comp.</x:t>
   </x:si>
   <x:si>
     <x:t>Service Company Address</x:t>
@@ -32,10 +32,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Kenneth Ferrington and Mary Archuleta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1701 Man O War Street SE Albuquerque NM 87123</x:t>
+    <x:t>04-3360747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9739.71</x:t>
   </x:si>
   <x:si>
     <x:t>General Inspectors 8100 M-4 Wyoming Blvd., NE Suite #285 Albuquerque, NM 87113</x:t>
@@ -45,14 +45,6 @@
   </x:si>
   <x:si>
     <x:t>$400.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 1","1701 Man O War Street SE"
-"City","Albuquerque"
-"Country","United States"
-"State / County / Province","New Mexico"
-"Zip Postal Code","87123"</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
@@ -113,7 +105,37 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="18">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -525,16 +547,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
